--- a/app/assets/formatsXlsx/Ventas_Clientes.xlsx
+++ b/app/assets/formatsXlsx/Ventas_Clientes.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B060F1-5F47-4B95-B0C6-E466A3932BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0ED5A774-B577-4230-B08A-CDDA4D12553B}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nombres</t>
   </si>
@@ -36,25 +58,28 @@
   <si>
     <t>ventas</t>
   </si>
+  <si>
+    <t>grupo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,112 +99,112 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -188,81 +213,431 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDA1A62D-6233-45C5-80A9-8F2ACDC32D75}" name="Tabla1" displayName="Tabla1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H10" xr:uid="{FDA1A62D-6233-45C5-80A9-8F2ACDC32D75}"/>
   <tableColumns count="8">
-    <tableColumn name="nombres" id="1"/>
-    <tableColumn name="apellidos" id="2"/>
-    <tableColumn name="cargo" id="3"/>
-    <tableColumn name="email" id="4"/>
-    <tableColumn name="numero_celular" id="5"/>
-    <tableColumn name="nombre_empresa" id="6"/>
-    <tableColumn name="ventas1" id="7"/>
-    <tableColumn name="ventas" id="8"/>
+    <tableColumn id="1" xr3:uid="{C7AC993F-21DB-4CDC-B6EC-A6FC6DC769D2}" name="nombres" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1CF47509-F9FC-4010-A507-8085B50ABB23}" name="apellidos" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2DCD0C4C-53F2-41EF-91B6-3F0CA4A114D0}" name="cargo" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E41F6E75-3C64-4472-8823-88B2816DE9E7}" name="email" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{924730CD-B37F-475F-BBDC-09347BA77BC3}" name="numero_celular" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FAB393A4-1A40-4085-9A2C-C24CF2739353}" name="nombre_empresa" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1F4B3453-8ED9-499F-9A27-C1F90BF85C4F}" name="ventas" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{DD951A2B-EC7B-4541-8B1F-ADF38F93BA35}" name="grupo" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -289,82 +664,116 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,189 +785,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5B978-930A-4488-8F3D-D773031F716C}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,77 +981,108 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>